--- a/3ExampleConversations.xlsx
+++ b/3ExampleConversations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FINALProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4749B74-F8DC-4CD4-93A2-FAACC21ED31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D616DD65-5B33-4EBD-9667-E8F794856C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{A912BAFC-02FC-42F2-96C2-78106F5A7081}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
   <si>
     <t>1. Warm-up (Priming)</t>
   </si>
@@ -324,6 +324,78 @@
   </si>
   <si>
     <t>"No, I just need some sleep."</t>
+  </si>
+  <si>
+    <t>"Hey, how’s everything going?"</t>
+  </si>
+  <si>
+    <t>"It’s been tough, I’m struggling to keep up with both."</t>
+  </si>
+  <si>
+    <t>"Okay. Has it been a particularly busy week for you?"</t>
+  </si>
+  <si>
+    <t>"That sounds like a lot. What’s been the biggest challenge for you?"</t>
+  </si>
+  <si>
+    <t>"Both, but especially revision. I just don’t have enough time."</t>
+  </si>
+  <si>
+    <t>"Just the usual workload."</t>
+  </si>
+  <si>
+    <t>"I see. Has anything made it feel more difficult than usual?"</t>
+  </si>
+  <si>
+    <t>"That’s a lot to manage. Have you had any time to step away and recharge?"</t>
+  </si>
+  <si>
+    <t>"Not really, I feel guilty when I’m not studying."</t>
+  </si>
+  <si>
+    <t>"It’s easy to feel that way, but even small breaks can help. Do you usually take time to switch off?"</t>
+  </si>
+  <si>
+    <t>"It’s understandable to feel that way. What helps you stay on track when things get overwhelming?"</t>
+  </si>
+  <si>
+    <t>"I try to set timers to break revision into chunks, but I still feel behind."</t>
+  </si>
+  <si>
+    <t>"I just push through."</t>
+  </si>
+  <si>
+    <t>"That makes sense. Have you found anything that helps make things feel a bit more manageable?"</t>
+  </si>
+  <si>
+    <t>"That’s a good approach. It’s okay if things feel tough right now—support can make a difference. Do you have anyone you talk things through with?"</t>
+  </si>
+  <si>
+    <t>"Yeah, my friends are feeling the same, we try to keep each other motivated."</t>
+  </si>
+  <si>
+    <t>"It can help to talk, even just to vent. Would reaching out to someone be an option?"</t>
+  </si>
+  <si>
+    <t>"If you ever want to check in again, I’m here. Anything else on your mind?"</t>
+  </si>
+  <si>
+    <t>"No, I think I just need to push through this week."</t>
+  </si>
+  <si>
+    <t>"Alright. Just making sure. If things feel overwhelming, I’m always here to chat."</t>
+  </si>
+  <si>
+    <t>"Okay. Take care and keep going—you’re doing your best!"</t>
+  </si>
+  <si>
+    <t>"Thanks, I’ll try!"</t>
+  </si>
+  <si>
+    <t>"Alright. Wishing you the best—talk soon."</t>
+  </si>
+  <si>
+    <t>STUDENT / JUNIOR DOCTOR</t>
   </si>
 </sst>
 </file>
@@ -723,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC43A28C-79F9-44D3-B506-45B983F15984}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -793,7 +865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1281,6 +1353,171 @@
       </c>
       <c r="F43" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15">
+      <c r="A47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="42.75">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="42.75">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="42.75">
+      <c r="A51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="71.25">
+      <c r="A52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="42.75">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.5">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
